--- a/Interferoemter Data (2).xlsx
+++ b/Interferoemter Data (2).xlsx
@@ -5,6 +5,8 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Sheet5" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Distance (cm)</t>
-  </si>
-  <si>
-    <t>Voltage V</t>
-  </si>
-  <si>
-    <t>Current Micro A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Distance mm</t>
   </si>
   <si>
     <t>Distance Warped</t>
+  </si>
+  <si>
+    <t>amp 1</t>
   </si>
   <si>
     <t>volt 1</t>
@@ -44,9 +40,6 @@
     <t>volt 5</t>
   </si>
   <si>
-    <t>amp 1</t>
-  </si>
-  <si>
     <t>amp 2</t>
   </si>
   <si>
@@ -58,15 +51,30 @@
   <si>
     <t>amp 5</t>
   </si>
+  <si>
+    <t>Distance (cm)</t>
+  </si>
+  <si>
+    <t>Voltage V</t>
+  </si>
+  <si>
+    <t>Current Micro A</t>
+  </si>
+  <si>
+    <t>Avg Volt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font/>
@@ -85,15 +93,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,11 +191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="860351433"/>
-        <c:axId val="1552070494"/>
+        <c:axId val="546947448"/>
+        <c:axId val="417668156"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="860351433"/>
+        <c:axId val="546947448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -209,10 +226,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1552070494"/>
+        <c:crossAx val="417668156"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1552070494"/>
+        <c:axId val="417668156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -244,7 +261,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="860351433"/>
+        <c:crossAx val="546947448"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -259,171 +276,6 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:t>avg volt vs. Distance mm</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng" w="19050">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$A$2:$A$52</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="270849162"/>
-        <c:axId val="686249198"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="270849162"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Distance mm</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="686249198"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="686249198"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>avg volt</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="270849162"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:t>Average Voltage vs Distance mm divided by 14</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -451,9 +303,14 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$52</c:f>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$52</c:f>
+              <c:f>Sheet4!$H$1:$H$52</c:f>
             </c:numRef>
           </c:yVal>
         </c:ser>
@@ -465,11 +322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1916041186"/>
-        <c:axId val="1204953779"/>
+        <c:axId val="1145216421"/>
+        <c:axId val="1828594385"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1916041186"/>
+        <c:axId val="1145216421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,23 +341,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Distance mm divided by 14</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -517,10 +357,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1204953779"/>
+        <c:crossAx val="1828594385"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1204953779"/>
+        <c:axId val="1828594385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,23 +375,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Average Voltage</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -568,183 +391,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1916041186"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:t>Average Current Milli A vs. Distance mm</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="3366CC"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$2:$A$52</c:f>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="226001561"/>
-        <c:axId val="2047096512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="226001561"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Distance mm</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2047096512"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2047096512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Average Current Milli A</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="226001561"/>
+        <c:crossAx val="1145216421"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -768,7 +415,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -787,18 +434,26 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -808,56 +463,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -877,46 +482,46 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3">
         <v>0.075</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>11.2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.019</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>33.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.05</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>11.5</v>
       </c>
     </row>
@@ -925,10 +530,10 @@
         <f t="shared" ref="A5:A102" si="1">A4+0.5</f>
         <v>1.5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.075</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>24.7</v>
       </c>
     </row>
@@ -937,10 +542,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.03</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -949,10 +554,10 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.015</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>16.4</v>
       </c>
     </row>
@@ -961,10 +566,10 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.014</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>34.3</v>
       </c>
     </row>
@@ -973,10 +578,10 @@
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>0.027</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>68.5</v>
       </c>
     </row>
@@ -985,10 +590,10 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.048</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>4.2</v>
       </c>
     </row>
@@ -997,10 +602,10 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.031</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>14.1</v>
       </c>
     </row>
@@ -1009,10 +614,10 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.009</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>42.7</v>
       </c>
     </row>
@@ -1021,7 +626,7 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>0.025</v>
       </c>
     </row>
@@ -1030,7 +635,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>0.024</v>
       </c>
     </row>
@@ -1039,7 +644,7 @@
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>0.017</v>
       </c>
     </row>
@@ -1048,7 +653,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>0.034</v>
       </c>
     </row>
@@ -1057,7 +662,7 @@
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>0.016</v>
       </c>
     </row>
@@ -1066,7 +671,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>0.016</v>
       </c>
     </row>
@@ -1075,7 +680,7 @@
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>0.047</v>
       </c>
     </row>
@@ -1084,7 +689,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>0.009</v>
       </c>
     </row>
@@ -1093,7 +698,7 @@
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>0.023</v>
       </c>
     </row>
@@ -1102,7 +707,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>0.033</v>
       </c>
     </row>
@@ -1111,7 +716,7 @@
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -1120,7 +725,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>0.047</v>
       </c>
     </row>
@@ -1129,7 +734,7 @@
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>0.035</v>
       </c>
     </row>
@@ -1138,7 +743,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>0.008</v>
       </c>
     </row>
@@ -1147,7 +752,7 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>0.033</v>
       </c>
     </row>
@@ -1156,7 +761,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>0.028</v>
       </c>
     </row>
@@ -1165,7 +770,7 @@
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>0.029</v>
       </c>
     </row>
@@ -1174,7 +779,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>0.025</v>
       </c>
     </row>
@@ -1183,7 +788,7 @@
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>0.011</v>
       </c>
     </row>
@@ -1192,7 +797,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>0.034</v>
       </c>
     </row>
@@ -1201,7 +806,7 @@
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>0.038</v>
       </c>
     </row>
@@ -1210,7 +815,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>0.006</v>
       </c>
     </row>
@@ -1219,7 +824,7 @@
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>0.038</v>
       </c>
     </row>
@@ -1228,7 +833,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>0.044</v>
       </c>
     </row>
@@ -1237,7 +842,7 @@
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>0.004</v>
       </c>
     </row>
@@ -1246,7 +851,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>0.027</v>
       </c>
     </row>
@@ -1255,7 +860,7 @@
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>0.03</v>
       </c>
     </row>
@@ -1264,7 +869,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>0.008</v>
       </c>
     </row>
@@ -1273,7 +878,7 @@
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>0.028</v>
       </c>
     </row>
@@ -1282,7 +887,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>0.031</v>
       </c>
     </row>
@@ -1291,7 +896,7 @@
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>0.008</v>
       </c>
     </row>
@@ -1300,7 +905,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>0.031</v>
       </c>
     </row>
@@ -1309,7 +914,7 @@
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>0.033</v>
       </c>
     </row>
@@ -1318,7 +923,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>0.004</v>
       </c>
     </row>
@@ -1327,7 +932,7 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1336,7 +941,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>0.027</v>
       </c>
     </row>
@@ -1345,7 +950,7 @@
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>0.021</v>
       </c>
     </row>
@@ -1354,7 +959,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>0.029</v>
       </c>
     </row>
@@ -1363,7 +968,7 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>0.028</v>
       </c>
     </row>
@@ -1372,7 +977,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>0.015</v>
       </c>
     </row>
@@ -1381,7 +986,7 @@
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1390,7 +995,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>0.016</v>
       </c>
     </row>
@@ -1399,7 +1004,7 @@
         <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>0.037</v>
       </c>
     </row>
@@ -1408,7 +1013,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1417,7 +1022,7 @@
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1426,7 +1031,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>0.031</v>
       </c>
     </row>
@@ -1435,7 +1040,7 @@
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>0.021</v>
       </c>
     </row>
@@ -1444,7 +1049,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>0.015</v>
       </c>
     </row>
@@ -1453,7 +1058,7 @@
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>0.027</v>
       </c>
     </row>
@@ -1462,7 +1067,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>0.02</v>
       </c>
     </row>
@@ -1471,7 +1076,7 @@
         <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>0.026</v>
       </c>
     </row>
@@ -1480,7 +1085,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>0.03</v>
       </c>
     </row>
@@ -1489,7 +1094,7 @@
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3">
         <v>0.032</v>
       </c>
     </row>
@@ -1498,7 +1103,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>0.016</v>
       </c>
     </row>
@@ -1507,7 +1112,7 @@
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>0.031</v>
       </c>
     </row>
@@ -1516,7 +1121,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>0.025</v>
       </c>
     </row>
@@ -1525,7 +1130,7 @@
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1534,7 +1139,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>0.027</v>
       </c>
     </row>
@@ -1543,7 +1148,7 @@
         <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>0.027</v>
       </c>
     </row>
@@ -1552,7 +1157,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>0.013</v>
       </c>
     </row>
@@ -1561,7 +1166,7 @@
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>0.025</v>
       </c>
     </row>
@@ -1570,7 +1175,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>0.029</v>
       </c>
     </row>
@@ -1579,7 +1184,7 @@
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>0.023</v>
       </c>
     </row>
@@ -1588,7 +1193,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>0.024</v>
       </c>
     </row>
@@ -1597,7 +1202,7 @@
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1606,7 +1211,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>0.016</v>
       </c>
     </row>
@@ -1615,7 +1220,7 @@
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>0.025</v>
       </c>
     </row>
@@ -1624,7 +1229,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>0.015</v>
       </c>
     </row>
@@ -1633,7 +1238,7 @@
         <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1642,7 +1247,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>0.027</v>
       </c>
     </row>
@@ -1651,7 +1256,7 @@
         <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>0.018</v>
       </c>
     </row>
@@ -1660,7 +1265,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="3">
         <v>0.023</v>
       </c>
     </row>
@@ -1669,7 +1274,7 @@
         <f t="shared" si="1"/>
         <v>41.5</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1678,7 +1283,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="3">
         <v>0.014</v>
       </c>
     </row>
@@ -1687,7 +1292,7 @@
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>0.026</v>
       </c>
     </row>
@@ -1696,7 +1301,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="3">
         <v>0.015</v>
       </c>
     </row>
@@ -1705,7 +1310,7 @@
         <f t="shared" si="1"/>
         <v>43.5</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>0.015</v>
       </c>
     </row>
@@ -1714,7 +1319,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>0.29</v>
       </c>
     </row>
@@ -1723,7 +1328,7 @@
         <f t="shared" si="1"/>
         <v>44.5</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="3">
         <v>0.021</v>
       </c>
     </row>
@@ -1732,7 +1337,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1741,7 +1346,7 @@
         <f t="shared" si="1"/>
         <v>45.5</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>0.03</v>
       </c>
     </row>
@@ -1750,7 +1355,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="3">
         <v>0.021</v>
       </c>
     </row>
@@ -1759,7 +1364,7 @@
         <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>0.025</v>
       </c>
     </row>
@@ -1768,7 +1373,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="3">
         <v>0.028</v>
       </c>
     </row>
@@ -1777,7 +1382,7 @@
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="3">
         <v>0.022</v>
       </c>
     </row>
@@ -1786,7 +1391,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>0.018</v>
       </c>
     </row>
@@ -1795,7 +1400,7 @@
         <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>0.029</v>
       </c>
     </row>
@@ -1804,7 +1409,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="3">
         <v>0.044</v>
       </c>
     </row>
@@ -1813,7 +1418,7 @@
         <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>0.013</v>
       </c>
     </row>
@@ -1822,7 +1427,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="3">
         <v>0.012</v>
       </c>
     </row>
@@ -1842,79 +1447,79 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>100.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <f t="shared" ref="B2:B52" si="1">MOD(A2+3,14)</f>
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.144</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.133</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.136</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0.156</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.14</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.14</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -1923,38 +1528,38 @@
         <f t="shared" ref="A3:A52" si="2">A2+1</f>
         <v>101</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.179</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.174</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.175</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.163</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.154</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.16</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.14</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.14</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.14</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -1963,38 +1568,38 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.189</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.192</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.192</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.16</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.147</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.13</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.14</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0.15</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -2003,38 +1608,38 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.194</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.204</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.199</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.15</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.149</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.22</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.13</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.13</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.13</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -2043,38 +1648,38 @@
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.189</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.199</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.199</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.116</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.131</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.23</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>0.09</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.12</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.09</v>
       </c>
     </row>
@@ -2083,38 +1688,38 @@
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.171</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.175</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.17</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.09</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.066</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.18</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>0.03</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>0.03</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>0.04</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -2123,38 +1728,38 @@
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>0.12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0.124</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>0.03</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>0.031</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>0.13</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="I8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2163,38 +1768,38 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>0.047</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.049</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>0.066</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>0.011</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>0.009</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>0.03</v>
       </c>
-      <c r="I9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="I9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2203,38 +1808,38 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>0.014</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.002</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0.001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>0.038</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>0.038</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.01</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>0.02</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>0.02</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -2243,38 +1848,38 @@
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.051</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.042</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.01</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>0.09</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>0.073</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.06</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>0.08</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <v>0.04</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -2283,38 +1888,38 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.139</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0.106</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.098</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>0.174</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>0.117</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>0.04</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>0.13</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>0.15</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
         <v>0.14</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -2323,38 +1928,38 @@
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.134</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.125</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.125</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>0.184</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>0.182</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>0.06</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>0.17</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>0.16</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>0.18</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="3">
         <v>0.19</v>
       </c>
     </row>
@@ -2363,38 +1968,38 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>0.13</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.129</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.122</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>0.187</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>0.185</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>0.06</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>0.17</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>0.16</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <v>0.2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -2403,38 +2008,38 @@
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>0.123</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>0.119</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.112</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>0.181</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>0.182</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>0.06</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>0.16</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>0.14</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <v>0.17</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="3">
         <v>0.16</v>
       </c>
     </row>
@@ -2443,38 +2048,38 @@
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>0.126</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>0.125</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.127</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>0.16</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>0.157</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <v>0.07</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>0.12</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>0.12</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <v>0.16</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -2483,38 +2088,38 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>0.155</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.164</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.156</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>0.156</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>0.146</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>0.15</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>0.12</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>0.12</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <v>0.14</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -2523,38 +2128,38 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>0.183</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>0.184</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>0.18</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>0.153</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <v>0.149</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <v>0.18</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>0.12</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>0.12</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <v>0.14</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -2563,38 +2168,38 @@
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>0.19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>0.191</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>0.193</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>0.144</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>0.142</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <v>0.19</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>0.11</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>0.12</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <v>0.13</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -2603,38 +2208,38 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>0.185</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>0.19</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>0.19</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>0.123</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>0.121</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <v>0.1</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>0.09</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>0.09</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <v>0.11</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -2643,38 +2248,38 @@
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>0.145</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>0.16</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0.174</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>0.096</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>0.103</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <v>0.05</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>0.04</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>0.04</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <v>0.09</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="3">
         <v>0.06</v>
       </c>
     </row>
@@ -2683,38 +2288,38 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>0.11</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>0.113</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.117</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>0.031</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>0.035</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <v>0.01</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>0.01</v>
       </c>
-      <c r="J22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="J22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="3">
         <v>0.01</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2723,38 +2328,38 @@
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>0.055</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>0.051</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>0.052</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>0.016</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>0.017</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="H23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2763,38 +2368,38 @@
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>0.02</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>0.01</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0.03</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>0.034</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>0.039</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <v>0.01</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>0.02</v>
       </c>
-      <c r="J24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="J24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="3">
         <v>0.02</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2803,38 +2408,38 @@
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>0.023</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>0.05</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>0.03</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>0.088</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>0.078</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <v>0.06</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>0.05</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>0.06</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <v>0.06</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="3">
         <v>0.06</v>
       </c>
     </row>
@@ -2843,38 +2448,38 @@
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>0.111</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>0.105</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>0.103</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>0.161</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>0.151</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="3">
         <v>0.14</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>0.13</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>0.12</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <v>0.13</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -2883,38 +2488,38 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>0.142</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>0.138</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>0.132</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>0.178</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>0.179</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <v>0.18</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>0.18</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="3">
         <v>0.18</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <v>0.18</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -2923,38 +2528,38 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>0.151</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>0.144</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>0.133</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>0.183</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>0.184</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <v>0.18</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="3">
         <v>0.19</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="3">
         <v>0.18</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <v>0.18</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -2963,38 +2568,38 @@
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>0.157</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>0.131</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>0.124</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>0.17</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>0.175</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <v>0.17</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="3">
         <v>0.17</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="3">
         <v>0.16</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="3">
         <v>0.16</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -3003,38 +2608,38 @@
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>0.126</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>0.12</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>0.12</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>0.172</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>0.156</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <v>0.13</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <v>0.14</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <v>0.14</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <v>0.15</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -3043,38 +2648,38 @@
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>0.133</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>0.142</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>0.13</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>0.139</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>0.138</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <v>0.1</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>0.1</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="3">
         <v>0.1</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <v>0.12</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -3083,38 +2688,38 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>0.163</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>0.16</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>0.145</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>0.128</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>0.124</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <v>0.1</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <v>0.09</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="3">
         <v>0.09</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
         <v>0.11</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="3">
         <v>0.11</v>
       </c>
     </row>
@@ -3123,38 +2728,38 @@
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>0.181</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>0.176</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>0.188</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>0.12</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>0.116</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <v>0.09</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <v>0.08</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="3">
         <v>0.08</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3">
         <v>0.09</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="3">
         <v>0.09</v>
       </c>
     </row>
@@ -3163,38 +2768,38 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>0.18</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>0.178</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>0.19</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>0.106</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>0.107</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <v>0.06</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>0.06</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="3">
         <v>0.08</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="3">
         <v>0.08</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -3203,38 +2808,38 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>0.161</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>0.164</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>0.18</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>0.074</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
         <v>0.092</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <v>0.03</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <v>0.03</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="3">
         <v>0.04</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="3">
         <v>0.07</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -3243,38 +2848,38 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>0.122</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>0.101</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>0.136</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <v>0.049</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <v>0.052</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <v>0.01</v>
       </c>
-      <c r="I36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="I36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="3">
         <v>0.01</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="3">
         <v>0.02</v>
       </c>
     </row>
@@ -3283,38 +2888,38 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>0.058</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>0.039</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>0.057</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>0.024</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
         <v>0.026</v>
       </c>
-      <c r="H37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="H37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3323,38 +2928,38 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>0.02</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>0.02</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>0.01</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>0.043</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3">
         <v>0.034</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <v>0.02</v>
       </c>
-      <c r="I38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="3">
         <v>0.01</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <v>0.01</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -3363,38 +2968,38 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>0.036</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>0.045</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>0.036</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>0.101</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3">
         <v>0.081</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <v>0.06</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <v>0.01</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="3">
         <v>0.06</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="3">
         <v>0.06</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="3">
         <v>0.06</v>
       </c>
     </row>
@@ -3403,38 +3008,38 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>0.093</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>0.123</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>0.07</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>0.153</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <v>0.138</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <v>0.13</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <v>0.04</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>0.11</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="3">
         <v>0.12</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -3443,38 +3048,38 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>0.155</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>0.142</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>0.135</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>0.176</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <v>0.177</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <v>0.19</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <v>0.18</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>0.18</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="3">
         <v>0.15</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -3483,38 +3088,38 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>0.17</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>0.172</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>0.15</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>0.194</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="3">
         <v>0.193</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <v>0.21</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="3">
         <v>0.2</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="3">
         <v>0.2</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="3">
         <v>0.21</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -3523,38 +3128,38 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>0.152</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>0.155</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>0.14</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>0.192</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="3">
         <v>0.19</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <v>0.19</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <v>0.19</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="3">
         <v>0.19</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="3">
         <v>0.19</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -3563,38 +3168,38 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>0.138</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>0.143</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>0.125</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>0.168</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3">
         <v>0.163</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <v>0.17</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <v>0.15</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="3">
         <v>0.17</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>0.17</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="3">
         <v>0.14</v>
       </c>
     </row>
@@ -3603,38 +3208,38 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>0.126</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>0.129</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>0.124</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>0.144</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3">
         <v>0.139</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <v>0.11</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <v>0.12</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="3">
         <v>0.1</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="3">
         <v>0.12</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -3643,38 +3248,38 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>0.138</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>0.14</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>0.15</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>0.124</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3">
         <v>0.125</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <v>0.09</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <v>0.09</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="3">
         <v>0.1</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="3">
         <v>0.09</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -3683,38 +3288,38 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>0.165</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>0.159</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>0.174</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>0.111</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="3">
         <v>0.108</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="3">
         <v>0.06</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <v>0.07</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="3">
         <v>0.08</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <v>0.09</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="3">
         <v>0.09</v>
       </c>
     </row>
@@ -3723,38 +3328,38 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>0.171</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>0.169</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>0.179</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>0.105</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="3">
         <v>0.103</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <v>0.06</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="3">
         <v>0.07</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="3">
         <v>0.06</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="3">
         <v>0.08</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -3763,38 +3368,38 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>0.16</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>0.16</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>0.167</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>0.085</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="3">
         <v>0.066</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <v>0.05</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="3">
         <v>0.05</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="3">
         <v>0.04</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="3">
         <v>0.06</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="3">
         <v>0.07</v>
       </c>
     </row>
@@ -3803,38 +3408,38 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>0.13</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="3">
         <v>0.145</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <v>0.072</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="3">
         <v>0.068</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <v>0.03</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="3">
         <v>0.02</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="3">
         <v>0.03</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="3">
         <v>0.03</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="3">
         <v>0.04</v>
       </c>
     </row>
@@ -3843,38 +3448,38 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>0.066</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>0.063</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>0.083</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>0.043</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="3">
         <v>0.039</v>
       </c>
-      <c r="H51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L51" s="1">
+      <c r="H51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3883,39 +3488,2870 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>0.006</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>0.07</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>0.015</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>0.039</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
         <v>0.038</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <v>0.01</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="3">
         <v>0.01</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="3">
         <v>0.01</v>
       </c>
-      <c r="K52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.0</v>
+      <c r="K52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B52" si="1">MOD(A2+3,14)</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A52" si="2">A2+1</f>
+        <v>101</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B52" si="1">MOD(A2+3,14)</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.144</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.133</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.136</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H52" si="2">(C2+D2+E2+F2+G2)/5</f>
+        <v>0.1478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f t="shared" ref="A3:A52" si="3">A2+1</f>
+        <v>101</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.179</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.174</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.175</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.163</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.147</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.194</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.199</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.149</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.1792</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.199</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.199</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.116</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.131</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.1668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.171</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.175</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.066</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.1344</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.031</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.047</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.049</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.066</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.011</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.009</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.0364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.014</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.038</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.038</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.0186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.051</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.042</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.073</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.0532</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.139</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.098</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.174</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.117</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.1268</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.134</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.184</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.187</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.1506</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.119</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.112</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.181</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.1434</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.164</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.146</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.1554</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.184</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.153</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.149</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.1698</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.144</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.142</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.1618</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.145</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.174</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.096</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.103</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.1356</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.113</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.117</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.031</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.035</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.0812</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.055</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.051</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.052</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.016</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.017</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.0382</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.034</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.039</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.0266</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.023</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.088</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.078</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.0538</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.103</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.161</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.1262</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.142</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.138</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.132</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.178</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.179</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0.1538</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.144</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.133</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.184</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.131</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.175</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.1514</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.172</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.1388</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.133</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.142</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.139</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.138</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0.1364</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.163</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.145</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.128</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.181</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.176</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.116</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.1562</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.178</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0.1522</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.161</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.164</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.074</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.092</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.1342</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.101</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.136</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.049</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.052</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.058</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.039</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.057</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.024</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.026</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0.0408</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.043</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.034</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0.0254</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.036</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.045</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.036</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.101</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.081</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0.0598</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.093</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.153</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.138</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.142</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.135</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.176</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.177</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.172</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.194</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.1758</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0.1658</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.138</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.143</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.168</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.163</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0.1474</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.144</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.139</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0.1324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.138</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0.1354</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.165</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.159</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.174</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0.1434</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.171</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.169</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.179</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.103</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0.1454</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.167</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.085</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.066</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.1276</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.145</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.072</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.066</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.063</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.083</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.043</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.039</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0.0588</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.006</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.015</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.039</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.038</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0.0336</v>
       </c>
     </row>
   </sheetData>
